--- a/doc/sceen.xlsx
+++ b/doc/sceen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Documents\Cours\L2\Archi\Labyrinthe68k\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0431BABB-55DC-434A-A617-DA5E41198447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC37761-57A7-4861-8D60-0A790757FEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3F5B3D15-AEFF-43C5-AE0B-C97CD2692EC2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3F5B3D15-AEFF-43C5-AE0B-C97CD2692EC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -63,7 +59,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -160,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -183,6 +179,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -190,9 +192,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -509,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635F446E-A659-4FB6-AB19-F1D3A60338CE}">
-  <dimension ref="AB10:AU24"/>
+  <dimension ref="AB9:AU24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="AT22" sqref="AT22:AU23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5703125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -520,27 +519,49 @@
     <col min="1" max="16384" width="4.5703125" style="4"/>
   </cols>
   <sheetData>
+    <row r="9" spans="28:47" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="3"/>
+    </row>
     <row r="10" spans="28:47" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
-      <c r="AI10" s="2"/>
-      <c r="AJ10" s="2"/>
-      <c r="AK10" s="2"/>
-      <c r="AL10" s="2"/>
-      <c r="AM10" s="2"/>
-      <c r="AN10" s="2"/>
-      <c r="AO10" s="2"/>
-      <c r="AP10" s="2"/>
-      <c r="AQ10" s="2"/>
-      <c r="AR10" s="2"/>
-      <c r="AS10" s="2"/>
-      <c r="AT10" s="2"/>
-      <c r="AU10" s="3"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="6"/>
+      <c r="AP10" s="6"/>
+      <c r="AQ10" s="6"/>
+      <c r="AR10" s="6"/>
+      <c r="AS10" s="6"/>
+      <c r="AT10" s="6"/>
+      <c r="AU10" s="7"/>
     </row>
     <row r="11" spans="28:47" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AB11" s="5"/>
@@ -661,8 +682,8 @@
       <c r="AG16" s="6"/>
       <c r="AH16" s="6"/>
       <c r="AI16" s="6"/>
-      <c r="AJ16" s="6"/>
-      <c r="AK16" s="6"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
       <c r="AL16" s="6"/>
       <c r="AM16" s="6"/>
       <c r="AN16" s="6"/>
@@ -683,8 +704,8 @@
       <c r="AG17" s="6"/>
       <c r="AH17" s="6"/>
       <c r="AI17" s="6"/>
-      <c r="AJ17" s="6"/>
-      <c r="AK17" s="11"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8"/>
       <c r="AL17" s="6"/>
       <c r="AM17" s="6"/>
       <c r="AN17" s="6"/>
@@ -807,29 +828,29 @@
       <c r="AU22" s="7"/>
     </row>
     <row r="23" spans="28:47" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="6"/>
-      <c r="AH23" s="6"/>
-      <c r="AI23" s="6"/>
-      <c r="AJ23" s="6"/>
-      <c r="AK23" s="6"/>
-      <c r="AL23" s="6"/>
-      <c r="AM23" s="6"/>
-      <c r="AN23" s="6"/>
-      <c r="AO23" s="6"/>
-      <c r="AP23" s="6"/>
-      <c r="AQ23" s="6"/>
-      <c r="AR23" s="6"/>
-      <c r="AS23" s="6"/>
-      <c r="AT23" s="6"/>
-      <c r="AU23" s="7"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="11"/>
+      <c r="AN23" s="11"/>
+      <c r="AO23" s="11"/>
+      <c r="AP23" s="11"/>
+      <c r="AQ23" s="11"/>
+      <c r="AR23" s="11"/>
+      <c r="AS23" s="11"/>
+      <c r="AT23" s="11"/>
+      <c r="AU23" s="12"/>
     </row>
     <row r="24" spans="28:47" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AB24" s="8"/>
+      <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
       <c r="AD24" s="9"/>
       <c r="AE24" s="9"/>
@@ -848,9 +869,81 @@
       <c r="AR24" s="9"/>
       <c r="AS24" s="9"/>
       <c r="AT24" s="9"/>
-      <c r="AU24" s="10"/>
+      <c r="AU24" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="70">
+    <mergeCell ref="AT18:AU19"/>
+    <mergeCell ref="AR18:AS19"/>
+    <mergeCell ref="AP18:AQ19"/>
+    <mergeCell ref="AN18:AO19"/>
+    <mergeCell ref="AL18:AM19"/>
+    <mergeCell ref="AJ18:AK19"/>
+    <mergeCell ref="AT20:AU21"/>
+    <mergeCell ref="AR20:AS21"/>
+    <mergeCell ref="AP20:AQ21"/>
+    <mergeCell ref="AN20:AO21"/>
+    <mergeCell ref="AL20:AM21"/>
+    <mergeCell ref="AJ20:AK21"/>
+    <mergeCell ref="AT22:AU23"/>
+    <mergeCell ref="AR22:AS23"/>
+    <mergeCell ref="AP22:AQ23"/>
+    <mergeCell ref="AN22:AO23"/>
+    <mergeCell ref="AL22:AM23"/>
+    <mergeCell ref="AJ22:AK23"/>
+    <mergeCell ref="AD22:AE23"/>
+    <mergeCell ref="AD20:AE21"/>
+    <mergeCell ref="AD18:AE19"/>
+    <mergeCell ref="AB22:AC23"/>
+    <mergeCell ref="AB20:AC21"/>
+    <mergeCell ref="AB18:AC19"/>
+    <mergeCell ref="AH22:AI23"/>
+    <mergeCell ref="AH20:AI21"/>
+    <mergeCell ref="AH18:AI19"/>
+    <mergeCell ref="AF22:AG23"/>
+    <mergeCell ref="AF20:AG21"/>
+    <mergeCell ref="AF18:AG19"/>
+    <mergeCell ref="AL14:AM15"/>
+    <mergeCell ref="AJ14:AK15"/>
+    <mergeCell ref="AH14:AI15"/>
+    <mergeCell ref="AF14:AG15"/>
+    <mergeCell ref="AD14:AE15"/>
+    <mergeCell ref="AB14:AC15"/>
+    <mergeCell ref="AN16:AO17"/>
+    <mergeCell ref="AP16:AQ17"/>
+    <mergeCell ref="AR16:AS17"/>
+    <mergeCell ref="AT16:AU17"/>
+    <mergeCell ref="AT14:AU15"/>
+    <mergeCell ref="AR14:AS15"/>
+    <mergeCell ref="AP14:AQ15"/>
+    <mergeCell ref="AN14:AO15"/>
+    <mergeCell ref="AB16:AC17"/>
+    <mergeCell ref="AD16:AE17"/>
+    <mergeCell ref="AF16:AG17"/>
+    <mergeCell ref="AH16:AI17"/>
+    <mergeCell ref="AJ16:AK17"/>
+    <mergeCell ref="AL16:AM17"/>
+    <mergeCell ref="AH12:AI13"/>
+    <mergeCell ref="AF12:AG13"/>
+    <mergeCell ref="AD12:AE13"/>
+    <mergeCell ref="AB12:AC13"/>
+    <mergeCell ref="AT10:AU11"/>
+    <mergeCell ref="AR10:AS11"/>
+    <mergeCell ref="AP10:AQ11"/>
+    <mergeCell ref="AT12:AU13"/>
+    <mergeCell ref="AR12:AS13"/>
+    <mergeCell ref="AP12:AQ13"/>
+    <mergeCell ref="AN12:AO13"/>
+    <mergeCell ref="AL12:AM13"/>
+    <mergeCell ref="AJ12:AK13"/>
+    <mergeCell ref="AB10:AC11"/>
+    <mergeCell ref="AD10:AE11"/>
+    <mergeCell ref="AF10:AG11"/>
+    <mergeCell ref="AH10:AI11"/>
+    <mergeCell ref="AN10:AO11"/>
+    <mergeCell ref="AL10:AM11"/>
+    <mergeCell ref="AJ10:AK11"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/sceen.xlsx
+++ b/doc/sceen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Documents\Cours\L2\Archi\Labyrinthe68k\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC37761-57A7-4861-8D60-0A790757FEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6067D8BD-927C-4FFD-85E9-124A98A1592A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3F5B3D15-AEFF-43C5-AE0B-C97CD2692EC2}"/>
   </bookViews>
@@ -64,7 +64,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -152,11 +152,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -170,28 +185,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -508,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635F446E-A659-4FB6-AB19-F1D3A60338CE}">
-  <dimension ref="AB9:AU24"/>
+  <dimension ref="AB9:AW24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="AT22" sqref="AT22:AU23"/>
+      <selection activeCell="AZ22" sqref="AZ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5703125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -519,7 +537,7 @@
     <col min="1" max="16384" width="4.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="9" spans="28:47" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="28:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AB9" s="1"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
@@ -540,389 +558,399 @@
       <c r="AS9" s="2"/>
       <c r="AT9" s="2"/>
       <c r="AU9" s="3"/>
-    </row>
-    <row r="10" spans="28:47" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
-      <c r="AH10" s="6"/>
-      <c r="AI10" s="6"/>
-      <c r="AJ10" s="6"/>
-      <c r="AK10" s="6"/>
-      <c r="AL10" s="6"/>
-      <c r="AM10" s="6"/>
-      <c r="AN10" s="6"/>
-      <c r="AO10" s="6"/>
-      <c r="AP10" s="6"/>
-      <c r="AQ10" s="6"/>
-      <c r="AR10" s="6"/>
-      <c r="AS10" s="6"/>
-      <c r="AT10" s="6"/>
-      <c r="AU10" s="7"/>
-    </row>
-    <row r="11" spans="28:47" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="6"/>
-      <c r="AH11" s="6"/>
-      <c r="AI11" s="6"/>
-      <c r="AJ11" s="6"/>
-      <c r="AK11" s="6"/>
-      <c r="AL11" s="6"/>
-      <c r="AM11" s="6"/>
-      <c r="AN11" s="6"/>
-      <c r="AO11" s="6"/>
-      <c r="AP11" s="6"/>
-      <c r="AQ11" s="6"/>
-      <c r="AR11" s="6"/>
-      <c r="AS11" s="6"/>
-      <c r="AT11" s="6"/>
-      <c r="AU11" s="7"/>
-    </row>
-    <row r="12" spans="28:47" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
-      <c r="AH12" s="6"/>
-      <c r="AI12" s="6"/>
-      <c r="AJ12" s="6"/>
-      <c r="AK12" s="6"/>
-      <c r="AL12" s="6"/>
-      <c r="AM12" s="6"/>
-      <c r="AN12" s="6"/>
-      <c r="AO12" s="6"/>
-      <c r="AP12" s="6"/>
-      <c r="AQ12" s="6"/>
-      <c r="AR12" s="6"/>
-      <c r="AS12" s="6"/>
-      <c r="AT12" s="6"/>
-      <c r="AU12" s="7"/>
-    </row>
-    <row r="13" spans="28:47" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="6"/>
-      <c r="AK13" s="6"/>
-      <c r="AL13" s="6"/>
-      <c r="AM13" s="6"/>
-      <c r="AN13" s="6"/>
-      <c r="AO13" s="6"/>
-      <c r="AP13" s="6"/>
-      <c r="AQ13" s="6"/>
-      <c r="AR13" s="6"/>
-      <c r="AS13" s="6"/>
-      <c r="AT13" s="6"/>
-      <c r="AU13" s="7"/>
-    </row>
-    <row r="14" spans="28:47" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
-      <c r="AH14" s="6"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="6"/>
-      <c r="AK14" s="6"/>
-      <c r="AL14" s="6"/>
-      <c r="AM14" s="6"/>
-      <c r="AN14" s="6"/>
-      <c r="AO14" s="6"/>
-      <c r="AP14" s="6"/>
-      <c r="AQ14" s="6"/>
-      <c r="AR14" s="6"/>
-      <c r="AS14" s="6"/>
-      <c r="AT14" s="6"/>
-      <c r="AU14" s="7"/>
-    </row>
-    <row r="15" spans="28:47" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="6"/>
-      <c r="AG15" s="6"/>
-      <c r="AH15" s="6"/>
-      <c r="AI15" s="6"/>
-      <c r="AJ15" s="6"/>
-      <c r="AK15" s="6"/>
-      <c r="AL15" s="6"/>
-      <c r="AM15" s="6"/>
-      <c r="AN15" s="6"/>
-      <c r="AO15" s="6"/>
-      <c r="AP15" s="6"/>
-      <c r="AQ15" s="6"/>
-      <c r="AR15" s="6"/>
-      <c r="AS15" s="6"/>
-      <c r="AT15" s="6"/>
-      <c r="AU15" s="7"/>
-    </row>
-    <row r="16" spans="28:47" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
-      <c r="AH16" s="6"/>
-      <c r="AI16" s="6"/>
-      <c r="AJ16" s="8"/>
-      <c r="AK16" s="8"/>
-      <c r="AL16" s="6"/>
-      <c r="AM16" s="6"/>
-      <c r="AN16" s="6"/>
-      <c r="AO16" s="6"/>
-      <c r="AP16" s="6"/>
-      <c r="AQ16" s="6"/>
-      <c r="AR16" s="6"/>
-      <c r="AS16" s="6"/>
-      <c r="AT16" s="6"/>
-      <c r="AU16" s="7"/>
-    </row>
-    <row r="17" spans="28:47" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
-      <c r="AH17" s="6"/>
-      <c r="AI17" s="6"/>
-      <c r="AJ17" s="8"/>
-      <c r="AK17" s="8"/>
-      <c r="AL17" s="6"/>
-      <c r="AM17" s="6"/>
-      <c r="AN17" s="6"/>
-      <c r="AO17" s="6"/>
-      <c r="AP17" s="6"/>
-      <c r="AQ17" s="6"/>
-      <c r="AR17" s="6"/>
-      <c r="AS17" s="6"/>
-      <c r="AT17" s="6"/>
-      <c r="AU17" s="7"/>
-    </row>
-    <row r="18" spans="28:47" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
-      <c r="AH18" s="6"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="6"/>
-      <c r="AK18" s="6"/>
-      <c r="AL18" s="6"/>
-      <c r="AM18" s="6"/>
-      <c r="AN18" s="6"/>
-      <c r="AO18" s="6"/>
-      <c r="AP18" s="6"/>
-      <c r="AQ18" s="6"/>
-      <c r="AR18" s="6"/>
-      <c r="AS18" s="6"/>
-      <c r="AT18" s="6"/>
-      <c r="AU18" s="7"/>
-    </row>
-    <row r="19" spans="28:47" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="6"/>
-      <c r="AH19" s="6"/>
-      <c r="AI19" s="6"/>
-      <c r="AJ19" s="6"/>
-      <c r="AK19" s="6"/>
-      <c r="AL19" s="6"/>
-      <c r="AM19" s="6"/>
-      <c r="AN19" s="6"/>
-      <c r="AO19" s="6"/>
-      <c r="AP19" s="6"/>
-      <c r="AQ19" s="6"/>
-      <c r="AR19" s="6"/>
-      <c r="AS19" s="6"/>
-      <c r="AT19" s="6"/>
-      <c r="AU19" s="7"/>
-    </row>
-    <row r="20" spans="28:47" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="6"/>
-      <c r="AH20" s="6"/>
-      <c r="AI20" s="6"/>
-      <c r="AJ20" s="6"/>
-      <c r="AK20" s="6"/>
-      <c r="AL20" s="6"/>
-      <c r="AM20" s="6"/>
-      <c r="AN20" s="6"/>
-      <c r="AO20" s="6"/>
-      <c r="AP20" s="6"/>
-      <c r="AQ20" s="6"/>
-      <c r="AR20" s="6"/>
-      <c r="AS20" s="6"/>
-      <c r="AT20" s="6"/>
-      <c r="AU20" s="7"/>
-    </row>
-    <row r="21" spans="28:47" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="6"/>
-      <c r="AE21" s="6"/>
-      <c r="AF21" s="6"/>
-      <c r="AG21" s="6"/>
-      <c r="AH21" s="6"/>
-      <c r="AI21" s="6"/>
-      <c r="AJ21" s="6"/>
-      <c r="AK21" s="6"/>
-      <c r="AL21" s="6"/>
-      <c r="AM21" s="6"/>
-      <c r="AN21" s="6"/>
-      <c r="AO21" s="6"/>
-      <c r="AP21" s="6"/>
-      <c r="AQ21" s="6"/>
-      <c r="AR21" s="6"/>
-      <c r="AS21" s="6"/>
-      <c r="AT21" s="6"/>
-      <c r="AU21" s="7"/>
-    </row>
-    <row r="22" spans="28:47" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="6"/>
-      <c r="AH22" s="6"/>
-      <c r="AI22" s="6"/>
-      <c r="AJ22" s="6"/>
-      <c r="AK22" s="6"/>
-      <c r="AL22" s="6"/>
-      <c r="AM22" s="6"/>
-      <c r="AN22" s="6"/>
-      <c r="AO22" s="6"/>
-      <c r="AP22" s="6"/>
-      <c r="AQ22" s="6"/>
-      <c r="AR22" s="6"/>
-      <c r="AS22" s="6"/>
-      <c r="AT22" s="6"/>
-      <c r="AU22" s="7"/>
-    </row>
-    <row r="23" spans="28:47" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="13"/>
+    </row>
+    <row r="10" spans="28:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5">
+        <v>2</v>
+      </c>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5">
+        <v>3</v>
+      </c>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5">
+        <v>4</v>
+      </c>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5">
+        <v>5</v>
+      </c>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5">
+        <v>6</v>
+      </c>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="5">
+        <v>7</v>
+      </c>
+      <c r="AQ10" s="5"/>
+      <c r="AR10" s="5">
+        <v>8</v>
+      </c>
+      <c r="AS10" s="5"/>
+      <c r="AT10" s="5">
+        <v>9</v>
+      </c>
+      <c r="AU10" s="5"/>
+      <c r="AV10" s="13"/>
+      <c r="AW10" s="13"/>
+    </row>
+    <row r="11" spans="28:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
+      <c r="AQ11" s="5"/>
+      <c r="AR11" s="5"/>
+      <c r="AS11" s="5"/>
+      <c r="AT11" s="5"/>
+      <c r="AU11" s="5"/>
+      <c r="AV11" s="13">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="13"/>
+    </row>
+    <row r="12" spans="28:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="5"/>
+      <c r="AQ12" s="5"/>
+      <c r="AR12" s="5"/>
+      <c r="AS12" s="5"/>
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="6"/>
+      <c r="AV12" s="13"/>
+      <c r="AW12" s="13"/>
+    </row>
+    <row r="13" spans="28:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="5"/>
+      <c r="AQ13" s="5"/>
+      <c r="AR13" s="5"/>
+      <c r="AS13" s="5"/>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="6"/>
+      <c r="AV13" s="13">
+        <v>2</v>
+      </c>
+      <c r="AW13" s="13"/>
+    </row>
+    <row r="14" spans="28:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="5"/>
+      <c r="AQ14" s="5"/>
+      <c r="AR14" s="5"/>
+      <c r="AS14" s="5"/>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="6"/>
+      <c r="AV14" s="13"/>
+      <c r="AW14" s="13"/>
+    </row>
+    <row r="15" spans="28:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="5"/>
+      <c r="AQ15" s="5"/>
+      <c r="AR15" s="5"/>
+      <c r="AS15" s="5"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="6"/>
+      <c r="AV15" s="13">
+        <v>3</v>
+      </c>
+      <c r="AW15" s="13"/>
+    </row>
+    <row r="16" spans="28:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5"/>
+      <c r="AQ16" s="5"/>
+      <c r="AR16" s="5"/>
+      <c r="AS16" s="5"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="6"/>
+      <c r="AV16" s="13"/>
+      <c r="AW16" s="13"/>
+    </row>
+    <row r="17" spans="28:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="5"/>
+      <c r="AQ17" s="5"/>
+      <c r="AR17" s="5"/>
+      <c r="AS17" s="5"/>
+      <c r="AT17" s="12"/>
+      <c r="AU17" s="6"/>
+      <c r="AV17" s="13">
+        <v>4</v>
+      </c>
+      <c r="AW17" s="13"/>
+    </row>
+    <row r="18" spans="28:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="5"/>
+      <c r="AQ18" s="5"/>
+      <c r="AR18" s="5"/>
+      <c r="AS18" s="5"/>
+      <c r="AT18" s="12"/>
+      <c r="AU18" s="6"/>
+      <c r="AV18" s="13"/>
+      <c r="AW18" s="13"/>
+    </row>
+    <row r="19" spans="28:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="5"/>
+      <c r="AQ19" s="5"/>
+      <c r="AR19" s="5"/>
+      <c r="AS19" s="5"/>
+      <c r="AT19" s="12"/>
+      <c r="AU19" s="6"/>
+      <c r="AV19" s="13">
+        <v>5</v>
+      </c>
+      <c r="AW19" s="13"/>
+    </row>
+    <row r="20" spans="28:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="5"/>
+      <c r="AQ20" s="5"/>
+      <c r="AR20" s="5"/>
+      <c r="AS20" s="5"/>
+      <c r="AT20" s="12"/>
+      <c r="AU20" s="6"/>
+      <c r="AV20" s="13"/>
+      <c r="AW20" s="13"/>
+    </row>
+    <row r="21" spans="28:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="5"/>
+      <c r="AQ21" s="5"/>
+      <c r="AR21" s="5"/>
+      <c r="AS21" s="5"/>
+      <c r="AT21" s="12"/>
+      <c r="AU21" s="6"/>
+      <c r="AV21" s="13">
+        <v>6</v>
+      </c>
+      <c r="AW21" s="13"/>
+    </row>
+    <row r="22" spans="28:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="5"/>
+      <c r="AR22" s="5"/>
+      <c r="AS22" s="5"/>
+      <c r="AT22" s="12"/>
+      <c r="AU22" s="6"/>
+      <c r="AV22" s="13"/>
+      <c r="AW22" s="13"/>
+    </row>
+    <row r="23" spans="28:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AB23" s="10"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="11"/>
-      <c r="AF23" s="11"/>
-      <c r="AG23" s="11"/>
-      <c r="AH23" s="11"/>
-      <c r="AI23" s="11"/>
-      <c r="AJ23" s="11"/>
-      <c r="AK23" s="11"/>
-      <c r="AL23" s="11"/>
-      <c r="AM23" s="11"/>
-      <c r="AN23" s="11"/>
-      <c r="AO23" s="11"/>
-      <c r="AP23" s="11"/>
-      <c r="AQ23" s="11"/>
-      <c r="AR23" s="11"/>
-      <c r="AS23" s="11"/>
-      <c r="AT23" s="11"/>
-      <c r="AU23" s="12"/>
-    </row>
-    <row r="24" spans="28:47" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="9"/>
-      <c r="AG24" s="9"/>
-      <c r="AH24" s="9"/>
-      <c r="AI24" s="9"/>
-      <c r="AJ24" s="9"/>
-      <c r="AK24" s="9"/>
-      <c r="AL24" s="9"/>
-      <c r="AM24" s="9"/>
-      <c r="AN24" s="9"/>
-      <c r="AO24" s="9"/>
-      <c r="AP24" s="9"/>
-      <c r="AQ24" s="9"/>
-      <c r="AR24" s="9"/>
-      <c r="AS24" s="9"/>
-      <c r="AT24" s="9"/>
-      <c r="AU24" s="9"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="7"/>
+      <c r="AJ23" s="7"/>
+      <c r="AK23" s="7"/>
+      <c r="AL23" s="7"/>
+      <c r="AM23" s="7"/>
+      <c r="AN23" s="7"/>
+      <c r="AO23" s="7"/>
+      <c r="AP23" s="7"/>
+      <c r="AQ23" s="7"/>
+      <c r="AR23" s="7"/>
+      <c r="AS23" s="7"/>
+      <c r="AT23" s="7"/>
+      <c r="AU23" s="8"/>
+      <c r="AV23" s="13">
+        <v>7</v>
+      </c>
+      <c r="AW23" s="13"/>
+    </row>
+    <row r="24" spans="28:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV24" s="13"/>
+      <c r="AW24" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="AT18:AU19"/>
-    <mergeCell ref="AR18:AS19"/>
-    <mergeCell ref="AP18:AQ19"/>
-    <mergeCell ref="AN18:AO19"/>
-    <mergeCell ref="AL18:AM19"/>
-    <mergeCell ref="AJ18:AK19"/>
-    <mergeCell ref="AT20:AU21"/>
-    <mergeCell ref="AR20:AS21"/>
-    <mergeCell ref="AP20:AQ21"/>
-    <mergeCell ref="AN20:AO21"/>
-    <mergeCell ref="AL20:AM21"/>
-    <mergeCell ref="AJ20:AK21"/>
-    <mergeCell ref="AT22:AU23"/>
-    <mergeCell ref="AR22:AS23"/>
-    <mergeCell ref="AP22:AQ23"/>
-    <mergeCell ref="AN22:AO23"/>
-    <mergeCell ref="AL22:AM23"/>
-    <mergeCell ref="AJ22:AK23"/>
-    <mergeCell ref="AD22:AE23"/>
-    <mergeCell ref="AD20:AE21"/>
-    <mergeCell ref="AD18:AE19"/>
-    <mergeCell ref="AB22:AC23"/>
-    <mergeCell ref="AB20:AC21"/>
-    <mergeCell ref="AB18:AC19"/>
-    <mergeCell ref="AH22:AI23"/>
-    <mergeCell ref="AH20:AI21"/>
-    <mergeCell ref="AH18:AI19"/>
-    <mergeCell ref="AF22:AG23"/>
-    <mergeCell ref="AF20:AG21"/>
-    <mergeCell ref="AF18:AG19"/>
-    <mergeCell ref="AL14:AM15"/>
-    <mergeCell ref="AJ14:AK15"/>
-    <mergeCell ref="AH14:AI15"/>
-    <mergeCell ref="AF14:AG15"/>
-    <mergeCell ref="AD14:AE15"/>
-    <mergeCell ref="AB14:AC15"/>
-    <mergeCell ref="AN16:AO17"/>
-    <mergeCell ref="AP16:AQ17"/>
-    <mergeCell ref="AR16:AS17"/>
-    <mergeCell ref="AT16:AU17"/>
-    <mergeCell ref="AT14:AU15"/>
-    <mergeCell ref="AR14:AS15"/>
-    <mergeCell ref="AP14:AQ15"/>
-    <mergeCell ref="AN14:AO15"/>
-    <mergeCell ref="AB16:AC17"/>
-    <mergeCell ref="AD16:AE17"/>
-    <mergeCell ref="AF16:AG17"/>
-    <mergeCell ref="AH16:AI17"/>
-    <mergeCell ref="AJ16:AK17"/>
-    <mergeCell ref="AL16:AM17"/>
+  <mergeCells count="78">
+    <mergeCell ref="AH10:AI11"/>
+    <mergeCell ref="AN10:AO11"/>
+    <mergeCell ref="AL10:AM11"/>
+    <mergeCell ref="AJ10:AK11"/>
+    <mergeCell ref="AV23:AW24"/>
+    <mergeCell ref="AV21:AW22"/>
+    <mergeCell ref="AV19:AW20"/>
+    <mergeCell ref="AV17:AW18"/>
+    <mergeCell ref="AV15:AW16"/>
+    <mergeCell ref="AV13:AW14"/>
+    <mergeCell ref="AV11:AW12"/>
+    <mergeCell ref="AV9:AW10"/>
     <mergeCell ref="AH12:AI13"/>
     <mergeCell ref="AF12:AG13"/>
     <mergeCell ref="AD12:AE13"/>
@@ -939,10 +967,56 @@
     <mergeCell ref="AB10:AC11"/>
     <mergeCell ref="AD10:AE11"/>
     <mergeCell ref="AF10:AG11"/>
-    <mergeCell ref="AH10:AI11"/>
-    <mergeCell ref="AN10:AO11"/>
-    <mergeCell ref="AL10:AM11"/>
-    <mergeCell ref="AJ10:AK11"/>
+    <mergeCell ref="AB14:AC15"/>
+    <mergeCell ref="AN16:AO17"/>
+    <mergeCell ref="AP16:AQ17"/>
+    <mergeCell ref="AR16:AS17"/>
+    <mergeCell ref="AT16:AU17"/>
+    <mergeCell ref="AT14:AU15"/>
+    <mergeCell ref="AR14:AS15"/>
+    <mergeCell ref="AP14:AQ15"/>
+    <mergeCell ref="AN14:AO15"/>
+    <mergeCell ref="AB16:AC17"/>
+    <mergeCell ref="AD16:AE17"/>
+    <mergeCell ref="AF16:AG17"/>
+    <mergeCell ref="AH16:AI17"/>
+    <mergeCell ref="AJ16:AK17"/>
+    <mergeCell ref="AL16:AM17"/>
+    <mergeCell ref="AL14:AM15"/>
+    <mergeCell ref="AJ14:AK15"/>
+    <mergeCell ref="AH14:AI15"/>
+    <mergeCell ref="AF14:AG15"/>
+    <mergeCell ref="AD14:AE15"/>
+    <mergeCell ref="AJ22:AK23"/>
+    <mergeCell ref="AD22:AE23"/>
+    <mergeCell ref="AD20:AE21"/>
+    <mergeCell ref="AD18:AE19"/>
+    <mergeCell ref="AB22:AC23"/>
+    <mergeCell ref="AB20:AC21"/>
+    <mergeCell ref="AB18:AC19"/>
+    <mergeCell ref="AH22:AI23"/>
+    <mergeCell ref="AH20:AI21"/>
+    <mergeCell ref="AH18:AI19"/>
+    <mergeCell ref="AF22:AG23"/>
+    <mergeCell ref="AF20:AG21"/>
+    <mergeCell ref="AF18:AG19"/>
+    <mergeCell ref="AT22:AU23"/>
+    <mergeCell ref="AR22:AS23"/>
+    <mergeCell ref="AP22:AQ23"/>
+    <mergeCell ref="AN22:AO23"/>
+    <mergeCell ref="AL22:AM23"/>
+    <mergeCell ref="AJ18:AK19"/>
+    <mergeCell ref="AT20:AU21"/>
+    <mergeCell ref="AR20:AS21"/>
+    <mergeCell ref="AP20:AQ21"/>
+    <mergeCell ref="AN20:AO21"/>
+    <mergeCell ref="AL20:AM21"/>
+    <mergeCell ref="AJ20:AK21"/>
+    <mergeCell ref="AT18:AU19"/>
+    <mergeCell ref="AR18:AS19"/>
+    <mergeCell ref="AP18:AQ19"/>
+    <mergeCell ref="AN18:AO19"/>
+    <mergeCell ref="AL18:AM19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
